--- a/classify-admin-web/importstudentinclassonly3.xlsx
+++ b/classify-admin-web/importstudentinclassonly3.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
